--- a/Gestion_stock/DATA_Plan_entrepot.xlsx
+++ b/Gestion_stock/DATA_Plan_entrepot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/Gestion_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0E0106-7114-2649-97EA-5FC71F8E6641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202F454-E001-714D-998D-344FEC4E0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="1540" windowWidth="25260" windowHeight="19240" activeTab="1" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
+    <workbookView xWindow="9300" yWindow="1540" windowWidth="25260" windowHeight="19240" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2942258C-F2A3-554C-A0E1-BDE1BB23FD40}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="142" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
@@ -1458,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="2">
-        <v>1545</v>
+        <v>1575</v>
       </c>
       <c r="I38" s="2">
         <v>230.38059999999999</v>
@@ -1498,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="H40" s="2">
-        <v>1553.8423</v>
+        <v>1565</v>
       </c>
       <c r="I40" s="2">
         <v>482</v>
@@ -1538,7 +1538,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="2">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="I42" s="2">
         <v>252.8006</v>
@@ -1578,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="2">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="I44" s="2">
         <v>226.17619999999999</v>
@@ -1598,7 +1598,7 @@
         <v>20</v>
       </c>
       <c r="H45" s="2">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="I45" s="2">
         <v>462</v>
@@ -1624,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F09EA1F-762F-CA48-B1AB-FED4B7D50319}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>

--- a/Gestion_stock/DATA_Plan_entrepot.xlsx
+++ b/Gestion_stock/DATA_Plan_entrepot.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieumccutcheon/Polybois/Conception/Gestion_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202F454-E001-714D-998D-344FEC4E0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE14CB-D0B2-6240-AA68-95D29BE9490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1540" windowWidth="25260" windowHeight="19240" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
+    <workbookView xWindow="9300" yWindow="1540" windowWidth="25260" windowHeight="19240" activeTab="7" xr2:uid="{898F68C3-730F-A947-AD6E-91E7FA3A0935}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
     <sheet name="entrepot_a" sheetId="3" r:id="rId2"/>
+    <sheet name="entrepot_b" sheetId="4" r:id="rId3"/>
+    <sheet name="entrepot_c" sheetId="5" r:id="rId4"/>
+    <sheet name="dome" sheetId="6" r:id="rId5"/>
+    <sheet name="corian" sheetId="7" r:id="rId6"/>
+    <sheet name="shipping" sheetId="8" r:id="rId7"/>
+    <sheet name="strat" sheetId="9" r:id="rId8"/>
+    <sheet name="exterieur" sheetId="10" r:id="rId9"/>
+    <sheet name="scie_a_panneau" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Summary" localSheetId="1">entrepot_a!$A$1:$J$82</definedName>
@@ -577,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2942258C-F2A3-554C-A0E1-BDE1BB23FD40}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="142" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="142" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -1617,6 +1625,20 @@
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC602C02-4FD7-FE41-8267-9C780254695B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3571,4 +3593,92 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32837C1-0F56-6C46-85E7-017AD193D8B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CEE122-83C0-1145-B910-AB1BA324D19B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0D62F-9CC9-B741-9457-43C9E31A2290}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618639CD-689E-ED45-9F53-8DBB1D49B236}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A73A3EF-2BF0-4148-A2B6-36A048B53B48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D2C43-E9F2-7C41-A6C3-C6A11A16B608}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5068DC-EBD9-C948-AEAF-EA209C3F6FF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>